--- a/imageCreationExcel/back/105/105_10.xlsx
+++ b/imageCreationExcel/back/105/105_10.xlsx
@@ -486,7 +486,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -495,15 +495,15 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>27.52949544679268</v>
+        <v>10.50778612639148</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.551260956890256</v>
+        <v>0.8110278166161385</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -511,14 +511,14 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.2176437055655409</v>
+        <v>0.3418002043503175</v>
       </c>
       <c r="I2" t="n">
         <v>4</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>1_1_brightness27.529_gamma0.551_sharpness0.218.jpg</t>
+          <t>1_P_brightness10.508_contrast0.811_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -528,39 +528,39 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>22.97728930617889</v>
+        <v>1.142379148132602</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.6110587262894771</v>
+        <v>0.04791704208032952</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.6894542244225961</v>
+        <v>18.63435103157859</v>
       </c>
       <c r="I3" t="n">
         <v>4</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2_9_brightness22.977_gamma0.611_sharpness0.689.jpg</t>
+          <t>2_B_contrast1.142_sharpness0.048_equalization18.634.jpg</t>
         </is>
       </c>
     </row>
@@ -570,24 +570,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>21.62968082135419</v>
+        <v>0.8593734751175823</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.9215768117189687</v>
+        <v>0.9338215639809411</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -595,14 +595,14 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.7337037792423462</v>
+        <v>0.7717108106563271</v>
       </c>
       <c r="I4" t="n">
         <v>4</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>3_0_brightness21.63_contrast0.922_sharpness0.734.jpg</t>
+          <t>3_2_contrast0.859_gamma0.934_sharpness0.772.jpg</t>
         </is>
       </c>
     </row>
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,30 +621,30 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>2.33723268663237</v>
+        <v>13.39592900030701</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.6268296479634835</v>
+        <v>1.182292762093187</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.807404009111869</v>
+        <v>0.8578376226270721</v>
       </c>
       <c r="I5" t="n">
         <v>4</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>4_I_brightness2.337_gamma0.627_sharpness0.807.jpg</t>
+          <t>4_2_brightness13.396_contrast1.182_gamma0.858.jpg</t>
         </is>
       </c>
     </row>
@@ -659,34 +659,34 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0.7629694333619468</v>
+        <v>3.269654248080204</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.7640704379016754</v>
+        <v>0.5454060417149673</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>21.21986994812336</v>
+        <v>0.9119036342572986</v>
       </c>
       <c r="I6" t="n">
         <v>4</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>5_S_gamma0.763_sharpness0.764_equalization21.22.jpg</t>
+          <t>5_S_brightness3.27_gamma0.545_sharpness0.912.jpg</t>
         </is>
       </c>
     </row>
@@ -696,39 +696,39 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>25.78708475342381</v>
+        <v>0.5625705357388027</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>1.12433098851042</v>
+        <v>0.4382059816880673</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.07076866579808563</v>
+        <v>4.996296105295152</v>
       </c>
       <c r="I7" t="n">
         <v>4</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>6_7_brightness25.787_contrast1.124_sharpness0.071.jpg</t>
+          <t>6_8_gamma0.563_sharpness0.438_equalization4.996.jpg</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -747,15 +747,15 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1.007478737965406</v>
+        <v>1.08070216705698</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.8790154846431057</v>
+        <v>0.8822602468660321</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -763,14 +763,14 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>24.06556062146786</v>
+        <v>20.11137596394764</v>
       </c>
       <c r="I8" t="n">
         <v>4</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>7_2_contrast1.007_gamma0.879_equalization24.066.jpg</t>
+          <t>7_8_contrast1.081_sharpness0.882_equalization20.111.jpg</t>
         </is>
       </c>
     </row>
@@ -780,39 +780,39 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>6.455071755744747</v>
+        <v>1.188148025282634</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.119995922661944</v>
+        <v>0.6028572512036812</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.04055713078317474</v>
+        <v>13.42508391099187</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>8_8_brightness6.455_contrast1.12_sharpness0.041.jpg</t>
+          <t>8_9_contrast1.188_gamma0.603_equalization13.425.jpg</t>
         </is>
       </c>
     </row>
@@ -822,39 +822,39 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0.8768876509605026</v>
+        <v>6.404383921670012</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.04484970087701756</v>
+        <v>1.118886311740908</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9.634439183736387</v>
+        <v>0.9661199590609812</v>
       </c>
       <c r="I10" t="n">
         <v>4</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>9_P_contrast0.877_sharpness0.045_equalization9.634.jpg</t>
+          <t>9_E_brightness6.404_contrast1.119_gamma0.966.jpg</t>
         </is>
       </c>
     </row>
@@ -864,39 +864,39 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.896302674202981</v>
+        <v>0.9751039215150689</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.7144554100499771</v>
+        <v>0.5813663972120895</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>12.08020091706582</v>
+        <v>0.2047274143788915</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>10_S_gamma0.896_sharpness0.714_equalization12.08.jpg</t>
+          <t>10_8_contrast0.975_gamma0.581_sharpness0.205.jpg</t>
         </is>
       </c>
     </row>
@@ -906,39 +906,39 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1.009196875836271</v>
+        <v>0.8147229177807918</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.9789923657019292</v>
+        <v>0.9262835500869118</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.3695348548120184</v>
+        <v>11.67684352127977</v>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>11_E_contrast1.009_gamma0.979_sharpness0.37.jpg</t>
+          <t>11_2_gamma0.815_sharpness0.926_equalization11.677.jpg</t>
         </is>
       </c>
     </row>
@@ -948,7 +948,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -957,30 +957,30 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1.035099992146768</v>
+        <v>1.044349990501619</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.7280871015614613</v>
+        <v>0.757635046921338</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>8.273506600331023</v>
+        <v>0.6613123936769623</v>
       </c>
       <c r="I13" t="n">
         <v>4</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>12_C_contrast1.035_sharpness0.728_equalization8.274.jpg</t>
+          <t>12_P_contrast1.044_gamma0.758_sharpness0.661.jpg</t>
         </is>
       </c>
     </row>
@@ -990,39 +990,39 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>29.34750910111786</v>
+        <v>0.9188256754106883</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.9778105619800609</v>
+        <v>0.6024898444596303</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.4135895613530099</v>
+        <v>29.43836819699357</v>
       </c>
       <c r="I14" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>13_S_brightness29.348_contrast0.978_sharpness0.414.jpg</t>
+          <t>13_P_contrast0.919_sharpness0.602_equalization29.438.jpg</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1041,7 +1041,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0.8318012681020538</v>
+        <v>1.040633596255295</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1049,22 +1049,22 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>1.033666681509367</v>
+        <v>1.072827548035054</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.5600877271311533</v>
+        <v>25.13506159028966</v>
       </c>
       <c r="I15" t="n">
         <v>4</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>14_C_contrast0.832_gamma1.034_sharpness0.56.jpg</t>
+          <t>14_E_contrast1.041_gamma1.073_equalization25.135.jpg</t>
         </is>
       </c>
     </row>
@@ -1074,39 +1074,39 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22.85916066611046</v>
+        <v>0.8009063203592747</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.8438719009969988</v>
+        <v>0.206045109730751</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.7821251107841791</v>
+        <v>5.774102251929898</v>
       </c>
       <c r="I16" t="n">
         <v>4</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>15_P_brightness22.859_gamma0.844_sharpness0.782.jpg</t>
+          <t>15_0_contrast0.801_sharpness0.206_equalization5.774.jpg</t>
         </is>
       </c>
     </row>
@@ -1116,7 +1116,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1125,30 +1125,30 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0.8720551568795157</v>
+        <v>0.8123633222639399</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.8207367012416248</v>
+        <v>0.5714891889471566</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>17.15796511383022</v>
+        <v>0.3424930524123835</v>
       </c>
       <c r="I17" t="n">
         <v>4</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>16_P_contrast0.872_sharpness0.821_equalization17.158.jpg</t>
+          <t>16_I_contrast0.812_gamma0.571_sharpness0.342.jpg</t>
         </is>
       </c>
     </row>
@@ -1158,39 +1158,39 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0.9004293263863409</v>
+        <v>9.565000789896567</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.5269589676367109</v>
+        <v>0.8746668508921766</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.6356006344720966</v>
+        <v>0.8433422033156419</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>17_9_contrast0.9_gamma0.527_sharpness0.636.jpg</t>
+          <t>17_7_brightness9.565_contrast0.875_gamma0.843.jpg</t>
         </is>
       </c>
     </row>
@@ -1209,30 +1209,30 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1.146678278759076</v>
+        <v>0.814911600340243</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.3909865431879709</v>
+        <v>0.9745942149407469</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>31.6959344222584</v>
+        <v>0.9337173063536838</v>
       </c>
       <c r="I19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>18_7_contrast1.147_sharpness0.391_equalization31.696.jpg</t>
+          <t>18_7_contrast0.815_gamma0.975_sharpness0.934.jpg</t>
         </is>
       </c>
     </row>
@@ -1242,7 +1242,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1251,7 +1251,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>26.12221071637911</v>
+        <v>20.20590883977042</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1259,7 +1259,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1.143309046889623</v>
+        <v>1.065497080548202</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1267,14 +1267,14 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.8506631298015614</v>
+        <v>0.7685430285385526</v>
       </c>
       <c r="I20" t="n">
         <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>19_P_brightness26.122_contrast1.143_sharpness0.851.jpg</t>
+          <t>19_I_brightness20.206_contrast1.065_sharpness0.769.jpg</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1293,30 +1293,30 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>11.5958591135483</v>
+        <v>3.852280328701712</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>1.05755178003669</v>
+        <v>0.8632096412065338</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.9601342213566878</v>
+        <v>0.8192036572463403</v>
       </c>
       <c r="I21" t="n">
         <v>4</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>20_9_brightness11.596_contrast1.058_gamma0.96.jpg</t>
+          <t>20_S_brightness3.852_gamma0.863_sharpness0.819.jpg</t>
         </is>
       </c>
     </row>
@@ -1326,24 +1326,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1.08864913440498</v>
+        <v>1.121727482485114</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.6292896465441548</v>
+        <v>0.8859541756224171</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1351,14 +1351,14 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>21.69295008027627</v>
+        <v>19.34942536120596</v>
       </c>
       <c r="I22" t="n">
         <v>4</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>21_2_gamma1.089_sharpness0.629_equalization21.693.jpg</t>
+          <t>21_8_contrast1.122_gamma0.886_equalization19.349.jpg</t>
         </is>
       </c>
     </row>
@@ -1368,39 +1368,39 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0.8198344911506119</v>
+        <v>28.34261132317937</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.06576388005858104</v>
+        <v>0.7380531619358585</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>21.7504857653616</v>
+        <v>0.1013002113277716</v>
       </c>
       <c r="I23" t="n">
         <v>4</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>22_9_contrast0.82_sharpness0.066_equalization21.75.jpg</t>
+          <t>22_2_brightness28.343_gamma0.738_sharpness0.101.jpg</t>
         </is>
       </c>
     </row>
@@ -1410,24 +1410,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1.006813305383983</v>
+        <v>1.017489776753099</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.5608881824656695</v>
+        <v>0.7672275580387621</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1435,14 +1435,14 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>24.81384145479231</v>
+        <v>14.05008510419431</v>
       </c>
       <c r="I24" t="n">
         <v>4</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>23_2_gamma1.007_sharpness0.561_equalization24.814.jpg</t>
+          <t>23_B_contrast1.017_gamma0.767_equalization14.05.jpg</t>
         </is>
       </c>
     </row>
@@ -1452,7 +1452,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0.9133149954094343</v>
+        <v>0.9193353534986234</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1469,7 +1469,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.5019454635111218</v>
+        <v>0.07317262115916252</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1477,14 +1477,14 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>28.04219569109028</v>
+        <v>24.04550713583069</v>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>24_3_contrast0.913_sharpness0.502_equalization28.042.jpg</t>
+          <t>24_B_contrast0.919_sharpness0.073_equalization24.046.jpg</t>
         </is>
       </c>
     </row>
@@ -1494,39 +1494,39 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>0.9607896165181835</v>
+        <v>7.838142739960623</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.8229562803533987</v>
+        <v>1.019804354942017</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>21.55651345780118</v>
+        <v>0.9871133994257787</v>
       </c>
       <c r="I26" t="n">
         <v>4</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>25_2_contrast0.961_sharpness0.823_equalization21.557.jpg</t>
+          <t>25_P_brightness7.838_gamma1.02_sharpness0.987.jpg</t>
         </is>
       </c>
     </row>
@@ -1536,7 +1536,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1545,7 +1545,7 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1.026085348239864</v>
+        <v>1.020985278987664</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1553,22 +1553,22 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.5826747120819531</v>
+        <v>0.7902898950297903</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.06809605749716605</v>
+        <v>6.370279244858817</v>
       </c>
       <c r="I27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>26_1_contrast1.026_gamma0.583_sharpness0.068.jpg</t>
+          <t>26_C_contrast1.021_gamma0.79_equalization6.37.jpg</t>
         </is>
       </c>
     </row>
@@ -1578,7 +1578,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1587,7 +1587,7 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1.097830913080409</v>
+        <v>0.8325187139653166</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1595,7 +1595,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.9998043017653205</v>
+        <v>0.8529408938713073</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1603,14 +1603,14 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>31.42779368486531</v>
+        <v>14.58380997780303</v>
       </c>
       <c r="I28" t="n">
         <v>4</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>27_T_contrast1.098_sharpness1.0_equalization31.428.jpg</t>
+          <t>27_2_contrast0.833_sharpness0.853_equalization14.584.jpg</t>
         </is>
       </c>
     </row>
@@ -1620,39 +1620,39 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>21.00976160149269</v>
+        <v>1.099812915559506</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.5825546990386726</v>
+        <v>0.4338497869350271</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.3559199126535242</v>
+        <v>24.43030886521723</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>28_1_brightness21.01_gamma0.583_sharpness0.356.jpg</t>
+          <t>28_0_contrast1.1_sharpness0.434_equalization24.43.jpg</t>
         </is>
       </c>
     </row>
@@ -1662,39 +1662,39 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>6.701144570193614</v>
+        <v>0.9900886397857039</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.8323571973455662</v>
+        <v>0.5255684735608712</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.7126188772393578</v>
+        <v>0.8761576804049618</v>
       </c>
       <c r="I30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>29_P_brightness6.701_contrast0.832_gamma0.713.jpg</t>
+          <t>29_7_contrast0.99_gamma0.526_sharpness0.876.jpg</t>
         </is>
       </c>
     </row>
@@ -1704,39 +1704,39 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.8273945247871238</v>
+        <v>1.013309038401701</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.9584560408087885</v>
+        <v>0.4862321983565996</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.778174922030933</v>
+        <v>31.1796076105333</v>
       </c>
       <c r="I31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>30_E_contrast0.827_gamma0.958_sharpness0.778.jpg</t>
+          <t>30_9_gamma1.013_sharpness0.486_equalization31.18.jpg</t>
         </is>
       </c>
     </row>
@@ -1746,16 +1746,16 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.9590223433252612</v>
+        <v>0.957597920155478</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1763,7 +1763,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.5673917388131492</v>
+        <v>0.08446582588728929</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1771,14 +1771,14 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>11.89988362609759</v>
+        <v>25.68759354453973</v>
       </c>
       <c r="I32" t="n">
         <v>4</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>31_0_gamma0.959_sharpness0.567_equalization11.9.jpg</t>
+          <t>31_S_contrast0.958_sharpness0.084_equalization25.688.jpg</t>
         </is>
       </c>
     </row>
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1797,30 +1797,30 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0.8030559226097501</v>
+        <v>0.9767949507802776</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.1066991835665626</v>
+        <v>0.614465583258058</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>24.10455038033896</v>
+        <v>0.01082442877502552</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>32_0_contrast0.803_sharpness0.107_equalization24.105.jpg</t>
+          <t>32_2_contrast0.977_gamma0.614_sharpness0.011.jpg</t>
         </is>
       </c>
     </row>
@@ -1839,7 +1839,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1.182968028347589</v>
+        <v>1.18250691664552</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1847,7 +1847,7 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.9468261392289152</v>
+        <v>0.8031649441992428</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1855,14 +1855,14 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>8.71855542682431</v>
+        <v>14.08019055342975</v>
       </c>
       <c r="I34" t="n">
         <v>4</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>33_S_contrast1.183_sharpness0.947_equalization8.719.jpg</t>
+          <t>33_S_contrast1.183_sharpness0.803_equalization14.08.jpg</t>
         </is>
       </c>
     </row>
@@ -1872,7 +1872,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1881,7 +1881,7 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.9338377405985155</v>
+        <v>1.088818202618689</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1889,22 +1889,22 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.8780860005058775</v>
+        <v>1.02573229729647</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>9.094865470594737</v>
+        <v>0.3751345087123331</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>34_C_contrast0.934_gamma0.878_equalization9.095.jpg</t>
+          <t>34_I_contrast1.089_gamma1.026_sharpness0.375.jpg</t>
         </is>
       </c>
     </row>
@@ -1914,7 +1914,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\I.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1923,7 +1923,7 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>28.60874206607815</v>
+        <v>14.27752099165968</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1931,7 +1931,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.8353880787115251</v>
+        <v>0.836836793023778</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1939,14 +1939,14 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.1977323140343702</v>
+        <v>0.4705890917921167</v>
       </c>
       <c r="I36" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>35_I_brightness28.609_gamma0.835_sharpness0.198.jpg</t>
+          <t>35_0_brightness14.278_gamma0.837_sharpness0.471.jpg</t>
         </is>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\1.JPG</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1965,7 +1965,7 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>1.165485087773156</v>
+        <v>1.159831265034925</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -1973,22 +1973,22 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.9779615211046956</v>
+        <v>0.8547773085526453</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.3691554075950811</v>
+        <v>14.10857475044481</v>
       </c>
       <c r="I37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>36_E_contrast1.165_gamma0.978_sharpness0.369.jpg</t>
+          <t>36_1_contrast1.16_gamma0.855_equalization14.109.jpg</t>
         </is>
       </c>
     </row>
@@ -1998,7 +1998,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -2007,7 +2007,7 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>1.035937367422675</v>
+        <v>0.8468480794657075</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2015,22 +2015,22 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.7866255611765165</v>
+        <v>0.5221507106316502</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.6424774487641063</v>
+        <v>26.26444255384763</v>
       </c>
       <c r="I38" t="n">
         <v>4</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>37_T_contrast1.036_gamma0.787_sharpness0.642.jpg</t>
+          <t>37_3_contrast0.847_gamma0.522_equalization26.264.jpg</t>
         </is>
       </c>
     </row>
@@ -2040,39 +2040,39 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\B.JPG</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>17.10896537596694</v>
+        <v>1.078871788086837</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.7940909732818131</v>
+        <v>0.7517453635289904</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.3325014398183412</v>
+        <v>29.19107977444505</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>38_0_brightness17.109_gamma0.794_sharpness0.333.jpg</t>
+          <t>38_B_gamma1.079_sharpness0.752_equalization29.191.jpg</t>
         </is>
       </c>
     </row>
@@ -2082,39 +2082,39 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>4.178936214082438</v>
+        <v>0.9480987765214469</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.9676963773767019</v>
+        <v>0.2021991154305542</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.7970773364616823</v>
+        <v>18.84768148647034</v>
       </c>
       <c r="I40" t="n">
         <v>4</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>39_P_brightness4.179_gamma0.968_sharpness0.797.jpg</t>
+          <t>39_E_contrast0.948_sharpness0.202_equalization18.848.jpg</t>
         </is>
       </c>
     </row>
@@ -2124,7 +2124,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\9.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\C.JPG</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -2133,15 +2133,15 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>11.95258286778736</v>
+        <v>4.775226210777887</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.883295225526967</v>
+        <v>0.7248834109840336</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -2149,14 +2149,14 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.104631678795511</v>
+        <v>0.9315056455504733</v>
       </c>
       <c r="I41" t="n">
         <v>4</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>40_9_brightness11.953_contrast0.883_sharpness0.105.jpg</t>
+          <t>40_C_brightness4.775_gamma0.725_sharpness0.932.jpg</t>
         </is>
       </c>
     </row>
@@ -2166,39 +2166,39 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0.5268501507813342</v>
+        <v>20.83345310747919</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.6116996539209042</v>
+        <v>0.7618483754097823</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>9.557885921542695</v>
+        <v>0.7618753957019733</v>
       </c>
       <c r="I42" t="n">
         <v>4</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>41_0_gamma0.527_sharpness0.612_equalization9.558.jpg</t>
+          <t>41_7_brightness20.833_gamma0.762_sharpness0.762.jpg</t>
         </is>
       </c>
     </row>
@@ -2208,16 +2208,16 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\8.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0.9314036097723285</v>
+        <v>0.8642351071983172</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -2225,7 +2225,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.7252908061063479</v>
+        <v>0.9496684052848764</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -2233,14 +2233,14 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>19.82506006806263</v>
+        <v>17.27025272591846</v>
       </c>
       <c r="I43" t="n">
         <v>4</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>42_8_contrast0.931_sharpness0.725_equalization19.825.jpg</t>
+          <t>42_E_gamma0.864_sharpness0.95_equalization17.27.jpg</t>
         </is>
       </c>
     </row>
@@ -2250,24 +2250,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\S.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1.095320124474316</v>
+        <v>0.5169312566467441</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.8123154104798523</v>
+        <v>0.09929730501843892</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -2275,14 +2275,14 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>19.60794096077909</v>
+        <v>24.25068886110411</v>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>43_S_contrast1.095_gamma0.812_equalization19.608.jpg</t>
+          <t>43_3_gamma0.517_sharpness0.099_equalization24.251.jpg</t>
         </is>
       </c>
     </row>
@@ -2292,39 +2292,39 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\0.JPG</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>14.1294022155714</v>
+        <v>0.9301020828405856</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>1.145792905913518</v>
+        <v>0.5818251018869872</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1.091922064138256</v>
+        <v>0.9563894241512949</v>
       </c>
       <c r="I45" t="n">
         <v>4</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>44_7_brightness14.129_contrast1.146_gamma1.092.jpg</t>
+          <t>44_0_contrast0.93_gamma0.582_sharpness0.956.jpg</t>
         </is>
       </c>
     </row>
@@ -2334,39 +2334,39 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\P.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\3.JPG</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>20.52210882358802</v>
+        <v>1.176415672568848</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.9655994908642718</v>
+        <v>0.5825669076138116</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.3322655956311671</v>
+        <v>28.06802876611965</v>
       </c>
       <c r="I46" t="n">
         <v>4</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>45_P_brightness20.522_contrast0.966_sharpness0.332.jpg</t>
+          <t>45_3_contrast1.176_gamma0.583_equalization28.068.jpg</t>
         </is>
       </c>
     </row>
@@ -2376,39 +2376,39 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>1.08049341819144</v>
+        <v>21.60235769585955</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>0.779458609373527</v>
+        <v>1.189900753753202</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>24.65179381078445</v>
+        <v>0.803351459521071</v>
       </c>
       <c r="I47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>46_E_contrast1.08_sharpness0.779_equalization24.652.jpg</t>
+          <t>46_T_brightness21.602_contrast1.19_sharpness0.803.jpg</t>
         </is>
       </c>
     </row>
@@ -2418,39 +2418,39 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\E.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\2.JPG</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>brightness</t>
+          <t>gamma</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>23.89065192113834</v>
+        <v>0.6777372171127867</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>gamma</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>0.7705987454818654</v>
+        <v>0.6074461062266818</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>equalization</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.577058194883277</v>
+        <v>4.285270015674637</v>
       </c>
       <c r="I48" t="n">
         <v>4</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>47_E_brightness23.891_gamma0.771_sharpness0.577.jpg</t>
+          <t>47_2_gamma0.678_sharpness0.607_equalization4.285.jpg</t>
         </is>
       </c>
     </row>
@@ -2460,39 +2460,39 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pictures\transformed\roomDark_figureBright\T.JPG</t>
+          <t>pictures\transformed\roomDark_figureBright\7.JPG</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>contrast</t>
+          <t>brightness</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>0.9095916064707381</v>
+        <v>26.98665713968157</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>sharpness</t>
+          <t>contrast</t>
         </is>
       </c>
       <c r="F49" t="n">
-        <v>0.6566950369777216</v>
+        <v>1.112390507432405</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>equalization</t>
+          <t>sharpness</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>11.78137206847895</v>
+        <v>0.03572492466690994</v>
       </c>
       <c r="I49" t="n">
         <v>4</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>48_T_contrast0.91_sharpness0.657_equalization11.781.jpg</t>
+          <t>48_7_brightness26.987_contrast1.112_sharpness0.036.jpg</t>
         </is>
       </c>
     </row>
